--- a/evap/staff/fixtures/valid_user_import.xlsx
+++ b/evap/staff/fixtures/valid_user_import.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucakleinschmidt/Documents/GitHub/EvaP/evap/staff/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E95B782-0176-4D4A-AF53-87E6F2452747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F93208-B63F-BE47-AE41-BC9CBB166A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19820" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19820" tabRatio="991" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -64,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -73,15 +73,24 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,10 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -479,11 +489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -495,39 +505,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
